--- a/data/macro/USA/US Consumer Confidence.xlsx
+++ b/data/macro/USA/US Consumer Confidence.xlsx
@@ -1,36 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junghunlee/Desktop/Pycharm/AlternativeData/data/macro/USA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\macro\USA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5622C2-23DC-CE46-8BDC-E30DBB24AD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AED68-7500-40AF-B52C-8C7A0B4C9B94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22600" xr2:uid="{CBE3001D-16D9-CC45-A2DD-41E4392F3541}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="36000" windowHeight="22605" xr2:uid="{CBE3001D-16D9-CC45-A2DD-41E4392F3541}"/>
   </bookViews>
   <sheets>
     <sheet name="CONCCONF" sheetId="1" r:id="rId1"/>
     <sheet name="info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -78,22 +67,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +90,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -128,27 +124,27 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,22 +479,22 @@
   <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="H641" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H656" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K641" sqref="K641"/>
+      <selection pane="bottomRight" activeCell="J671" sqref="J671"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
-    <col min="5" max="7" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="6"/>
+    <col min="5" max="7" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -521,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>25569</v>
       </c>
@@ -554,7 +550,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>25600</v>
       </c>
@@ -590,7 +586,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>25628</v>
       </c>
@@ -611,7 +607,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>25659</v>
       </c>
@@ -632,7 +628,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>25689</v>
       </c>
@@ -653,7 +649,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>25720</v>
       </c>
@@ -674,7 +670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>25750</v>
       </c>
@@ -695,7 +691,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>25781</v>
       </c>
@@ -716,7 +712,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>25812</v>
       </c>
@@ -737,7 +733,7 @@
         <v>88.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>25842</v>
       </c>
@@ -758,7 +754,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>25873</v>
       </c>
@@ -779,7 +775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>25903</v>
       </c>
@@ -800,7 +796,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>25934</v>
       </c>
@@ -821,7 +817,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>25965</v>
       </c>
@@ -842,7 +838,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>25993</v>
       </c>
@@ -863,7 +859,7 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>26024</v>
       </c>
@@ -884,7 +880,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>26054</v>
       </c>
@@ -905,7 +901,7 @@
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>26085</v>
       </c>
@@ -926,7 +922,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>26115</v>
       </c>
@@ -947,7 +943,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>26146</v>
       </c>
@@ -968,7 +964,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>26177</v>
       </c>
@@ -989,7 +985,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>26207</v>
       </c>
@@ -1010,7 +1006,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>26238</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>26268</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>26299</v>
       </c>
@@ -1073,7 +1069,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>26330</v>
       </c>
@@ -1094,7 +1090,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26359</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26390</v>
       </c>
@@ -1136,7 +1132,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>26420</v>
       </c>
@@ -1157,7 +1153,7 @@
         <v>93.6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>26451</v>
       </c>
@@ -1178,7 +1174,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>26481</v>
       </c>
@@ -1199,7 +1195,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>26512</v>
       </c>
@@ -1220,7 +1216,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>26543</v>
       </c>
@@ -1241,7 +1237,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>26573</v>
       </c>
@@ -1262,7 +1258,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>26604</v>
       </c>
@@ -1283,7 +1279,7 @@
         <v>104.1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>26634</v>
       </c>
@@ -1304,7 +1300,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>26665</v>
       </c>
@@ -1325,7 +1321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>26696</v>
       </c>
@@ -1346,7 +1342,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>26724</v>
       </c>
@@ -1367,7 +1363,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>26755</v>
       </c>
@@ -1388,7 +1384,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>26785</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>110.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>26816</v>
       </c>
@@ -1430,7 +1426,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>26846</v>
       </c>
@@ -1451,7 +1447,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>26877</v>
       </c>
@@ -1472,7 +1468,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>26908</v>
       </c>
@@ -1493,7 +1489,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>26938</v>
       </c>
@@ -1514,7 +1510,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>26969</v>
       </c>
@@ -1535,7 +1531,7 @@
         <v>93.8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>26999</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>27030</v>
       </c>
@@ -1577,7 +1573,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>27061</v>
       </c>
@@ -1598,7 +1594,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>27089</v>
       </c>
@@ -1619,7 +1615,7 @@
         <v>70.599999999999994</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>27120</v>
       </c>
@@ -1640,7 +1636,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>27150</v>
       </c>
@@ -1661,7 +1657,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>27181</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>27211</v>
       </c>
@@ -1703,7 +1699,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>27242</v>
       </c>
@@ -1724,7 +1720,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>27273</v>
       </c>
@@ -1745,7 +1741,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>27303</v>
       </c>
@@ -1766,7 +1762,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>27334</v>
       </c>
@@ -1787,7 +1783,7 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>27364</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>27395</v>
       </c>
@@ -1829,7 +1825,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>27426</v>
       </c>
@@ -1850,7 +1846,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>27454</v>
       </c>
@@ -1871,7 +1867,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>27485</v>
       </c>
@@ -1892,7 +1888,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>27515</v>
       </c>
@@ -1913,7 +1909,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>27546</v>
       </c>
@@ -1949,7 +1945,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>27576</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>27607</v>
       </c>
@@ -1991,7 +1987,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>27638</v>
       </c>
@@ -2012,7 +2008,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>27668</v>
       </c>
@@ -2033,7 +2029,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>27699</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>27729</v>
       </c>
@@ -2075,7 +2071,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>27760</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>27791</v>
       </c>
@@ -2117,7 +2113,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>27820</v>
       </c>
@@ -2138,7 +2134,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>27851</v>
       </c>
@@ -2159,7 +2155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>27881</v>
       </c>
@@ -2180,7 +2176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>27912</v>
       </c>
@@ -2201,7 +2197,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>27942</v>
       </c>
@@ -2222,7 +2218,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>27973</v>
       </c>
@@ -2243,7 +2239,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>28004</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>28034</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>28065</v>
       </c>
@@ -2306,7 +2302,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>28095</v>
       </c>
@@ -2327,7 +2323,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>28126</v>
       </c>
@@ -2348,7 +2344,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>28157</v>
       </c>
@@ -2369,7 +2365,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>28185</v>
       </c>
@@ -2390,7 +2386,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>28216</v>
       </c>
@@ -2411,7 +2407,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>28246</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>28277</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>28307</v>
       </c>
@@ -2474,7 +2470,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>28338</v>
       </c>
@@ -2495,7 +2491,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>28369</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>28399</v>
       </c>
@@ -2537,7 +2533,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>28430</v>
       </c>
@@ -2558,7 +2554,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>28460</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>28491</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>28522</v>
       </c>
@@ -2621,7 +2617,7 @@
         <v>109.7</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>28550</v>
       </c>
@@ -2642,7 +2638,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>28581</v>
       </c>
@@ -2663,7 +2659,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>28611</v>
       </c>
@@ -2684,7 +2680,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>28642</v>
       </c>
@@ -2705,7 +2701,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>28672</v>
       </c>
@@ -2726,7 +2722,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>28703</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>28734</v>
       </c>
@@ -2768,7 +2764,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>28764</v>
       </c>
@@ -2789,7 +2785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>28795</v>
       </c>
@@ -2810,7 +2806,7 @@
         <v>106.6</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>28825</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>28856</v>
       </c>
@@ -2852,7 +2848,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>28887</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>28915</v>
       </c>
@@ -2894,7 +2890,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>28946</v>
       </c>
@@ -2915,7 +2911,7 @@
         <v>101.5</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>28976</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>29007</v>
       </c>
@@ -2957,7 +2953,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>29037</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>29068</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>92.7</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>29099</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>29129</v>
       </c>
@@ -3041,7 +3037,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>29160</v>
       </c>
@@ -3062,7 +3058,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>29190</v>
       </c>
@@ -3083,7 +3079,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>29221</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>90.2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>29252</v>
       </c>
@@ -3125,7 +3121,7 @@
         <v>90.7</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>29281</v>
       </c>
@@ -3146,7 +3142,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>29312</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>29342</v>
       </c>
@@ -3188,7 +3184,7 @@
         <v>80.8</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>29373</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>29403</v>
       </c>
@@ -3230,7 +3226,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>29434</v>
       </c>
@@ -3251,7 +3247,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>29465</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>29495</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>29526</v>
       </c>
@@ -3329,7 +3325,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>29556</v>
       </c>
@@ -3350,7 +3346,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>29587</v>
       </c>
@@ -3371,7 +3367,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>29618</v>
       </c>
@@ -3392,7 +3388,7 @@
         <v>78.599999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>29646</v>
       </c>
@@ -3413,7 +3409,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>29677</v>
       </c>
@@ -3434,7 +3430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>29707</v>
       </c>
@@ -3455,7 +3451,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>29738</v>
       </c>
@@ -3476,7 +3472,7 @@
         <v>81.599999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>29768</v>
       </c>
@@ -3497,7 +3493,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>29799</v>
       </c>
@@ -3518,7 +3514,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>29830</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>29860</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>29891</v>
       </c>
@@ -3581,7 +3577,7 @@
         <v>77.599999999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>29921</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>29952</v>
       </c>
@@ -3623,7 +3619,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>29983</v>
       </c>
@@ -3644,7 +3640,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>30011</v>
       </c>
@@ -3665,7 +3661,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>30042</v>
       </c>
@@ -3686,7 +3682,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>30072</v>
       </c>
@@ -3707,7 +3703,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>30103</v>
       </c>
@@ -3728,7 +3724,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>30133</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>30164</v>
       </c>
@@ -3770,7 +3766,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>30195</v>
       </c>
@@ -3791,7 +3787,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>30225</v>
       </c>
@@ -3812,7 +3808,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>30256</v>
       </c>
@@ -3833,7 +3829,7 @@
         <v>58.1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>30286</v>
       </c>
@@ -3854,7 +3850,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>30317</v>
       </c>
@@ -3875,7 +3871,7 @@
         <v>57.4</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>30348</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>30376</v>
       </c>
@@ -3917,7 +3913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>30407</v>
       </c>
@@ -3938,7 +3934,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>30437</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>30468</v>
       </c>
@@ -3980,7 +3976,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="5">
         <v>30498</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>87.7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
         <v>30529</v>
       </c>
@@ -4022,7 +4018,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="5">
         <v>30560</v>
       </c>
@@ -4043,7 +4039,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
         <v>30590</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>91.2</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="5">
         <v>30621</v>
       </c>
@@ -4085,7 +4081,7 @@
         <v>91.1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
         <v>30651</v>
       </c>
@@ -4106,7 +4102,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="5">
         <v>30682</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
         <v>30713</v>
       </c>
@@ -4148,7 +4144,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="5">
         <v>30742</v>
       </c>
@@ -4169,7 +4165,7 @@
         <v>103.9</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
         <v>30773</v>
       </c>
@@ -4190,7 +4186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="5">
         <v>30803</v>
       </c>
@@ -4211,7 +4207,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
         <v>30834</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>106.1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="5">
         <v>30864</v>
       </c>
@@ -4253,7 +4249,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>30895</v>
       </c>
@@ -4274,7 +4270,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="5">
         <v>30926</v>
       </c>
@@ -4295,7 +4291,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
         <v>30956</v>
       </c>
@@ -4316,7 +4312,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>30987</v>
       </c>
@@ -4337,7 +4333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
         <v>31017</v>
       </c>
@@ -4358,7 +4354,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="5">
         <v>31048</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
         <v>31079</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="5">
         <v>31107</v>
       </c>
@@ -4421,7 +4417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
         <v>31138</v>
       </c>
@@ -4442,7 +4438,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="5">
         <v>31168</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
         <v>31199</v>
       </c>
@@ -4484,7 +4480,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="5">
         <v>31229</v>
       </c>
@@ -4505,7 +4501,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
         <v>31260</v>
       </c>
@@ -4526,7 +4522,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="5">
         <v>31291</v>
       </c>
@@ -4547,7 +4543,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
         <v>31321</v>
       </c>
@@ -4568,7 +4564,7 @@
         <v>100.9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="5">
         <v>31352</v>
       </c>
@@ -4589,7 +4585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
         <v>31382</v>
       </c>
@@ -4610,7 +4606,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="5">
         <v>31413</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
         <v>31444</v>
       </c>
@@ -4667,7 +4663,7 @@
         <v>98.2</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="5">
         <v>31472</v>
       </c>
@@ -4688,7 +4684,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
         <v>31503</v>
       </c>
@@ -4709,7 +4705,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="5">
         <v>31533</v>
       </c>
@@ -4730,7 +4726,7 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
         <v>31564</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="5">
         <v>31594</v>
       </c>
@@ -4772,7 +4768,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
         <v>31625</v>
       </c>
@@ -4793,7 +4789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5">
         <v>31656</v>
       </c>
@@ -4814,7 +4810,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
         <v>31686</v>
       </c>
@@ -4835,7 +4831,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5">
         <v>31717</v>
       </c>
@@ -4856,7 +4852,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
         <v>31747</v>
       </c>
@@ -4877,7 +4873,7 @@
         <v>85.8</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="5">
         <v>31778</v>
       </c>
@@ -4898,7 +4894,7 @@
         <v>89.7</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
         <v>31809</v>
       </c>
@@ -4919,7 +4915,7 @@
         <v>93.2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="5">
         <v>31837</v>
       </c>
@@ -4940,7 +4936,7 @@
         <v>85.4</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
         <v>31868</v>
       </c>
@@ -4961,7 +4957,7 @@
         <v>91.8</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="5">
         <v>31898</v>
       </c>
@@ -4982,7 +4978,7 @@
         <v>95.8</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
         <v>31929</v>
       </c>
@@ -5003,7 +4999,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5">
         <v>31959</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
         <v>31990</v>
       </c>
@@ -5045,7 +5041,7 @@
         <v>102.1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>32021</v>
       </c>
@@ -5066,7 +5062,7 @@
         <v>105.8</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
         <v>32051</v>
       </c>
@@ -5087,7 +5083,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5">
         <v>32082</v>
       </c>
@@ -5108,7 +5104,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
         <v>32112</v>
       </c>
@@ -5129,7 +5125,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5">
         <v>32143</v>
       </c>
@@ -5150,7 +5146,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
         <v>32174</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>107.7</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5">
         <v>32203</v>
       </c>
@@ -5192,7 +5188,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>32234</v>
       </c>
@@ -5213,7 +5209,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5">
         <v>32264</v>
       </c>
@@ -5234,7 +5230,7 @@
         <v>112.7</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
         <v>32295</v>
       </c>
@@ -5255,7 +5251,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5">
         <v>32325</v>
       </c>
@@ -5276,7 +5272,7 @@
         <v>120.2</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
         <v>32356</v>
       </c>
@@ -5297,7 +5293,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="5">
         <v>32387</v>
       </c>
@@ -5318,7 +5314,7 @@
         <v>113.5</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
         <v>32417</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>119.7</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="5">
         <v>32448</v>
       </c>
@@ -5360,7 +5356,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
         <v>32478</v>
       </c>
@@ -5381,7 +5377,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="5">
         <v>32509</v>
       </c>
@@ -5402,7 +5398,7 @@
         <v>112.9</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
         <v>32540</v>
       </c>
@@ -5423,7 +5419,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="5">
         <v>32568</v>
       </c>
@@ -5444,7 +5440,7 @@
         <v>115.8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
         <v>32599</v>
       </c>
@@ -5465,7 +5461,7 @@
         <v>120.7</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="5">
         <v>32629</v>
       </c>
@@ -5486,7 +5482,7 @@
         <v>117.4</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
         <v>32660</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>116.6</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="5">
         <v>32690</v>
       </c>
@@ -5528,7 +5524,7 @@
         <v>116.7</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
         <v>32721</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="5">
         <v>32752</v>
       </c>
@@ -5570,7 +5566,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
         <v>32782</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>115.4</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>32813</v>
       </c>
@@ -5612,7 +5608,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
         <v>32843</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="5">
         <v>32874</v>
       </c>
@@ -5654,7 +5650,7 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
         <v>32905</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5">
         <v>32933</v>
       </c>
@@ -5696,7 +5692,7 @@
         <v>106.5</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
         <v>32964</v>
       </c>
@@ -5717,7 +5713,7 @@
         <v>106.7</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5">
         <v>32994</v>
       </c>
@@ -5738,7 +5734,7 @@
         <v>110.6</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
         <v>33025</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>33055</v>
       </c>
@@ -5780,7 +5776,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
         <v>33086</v>
       </c>
@@ -5801,7 +5797,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5">
         <v>33117</v>
       </c>
@@ -5822,7 +5818,7 @@
         <v>101.7</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
         <v>33147</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>84.7</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5">
         <v>33178</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
         <v>33208</v>
       </c>
@@ -5885,7 +5881,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>33239</v>
       </c>
@@ -5906,7 +5902,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
         <v>33270</v>
       </c>
@@ -5927,7 +5923,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5">
         <v>33298</v>
       </c>
@@ -5948,7 +5944,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
         <v>33329</v>
       </c>
@@ -5969,7 +5965,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5">
         <v>33359</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
         <v>33390</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5">
         <v>33420</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
         <v>33451</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="5">
         <v>33482</v>
       </c>
@@ -6089,7 +6085,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
         <v>33512</v>
       </c>
@@ -6110,7 +6106,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="5">
         <v>33543</v>
       </c>
@@ -6131,7 +6127,7 @@
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>33573</v>
       </c>
@@ -6152,7 +6148,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5">
         <v>33604</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
         <v>33635</v>
       </c>
@@ -6194,7 +6190,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>33664</v>
       </c>
@@ -6215,7 +6211,7 @@
         <v>50.2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>33695</v>
       </c>
@@ -6236,7 +6232,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>33725</v>
       </c>
@@ -6257,7 +6253,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>33756</v>
       </c>
@@ -6278,7 +6274,7 @@
         <v>65.099999999999994</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>33786</v>
       </c>
@@ -6299,7 +6295,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
         <v>33817</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="5">
         <v>33848</v>
       </c>
@@ -6341,7 +6337,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
         <v>33878</v>
       </c>
@@ -6362,7 +6358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="5">
         <v>33909</v>
       </c>
@@ -6383,7 +6379,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
         <v>33939</v>
       </c>
@@ -6404,7 +6400,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="5">
         <v>33970</v>
       </c>
@@ -6425,7 +6421,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
         <v>34001</v>
       </c>
@@ -6446,7 +6442,7 @@
         <v>78.099999999999994</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
         <v>34029</v>
       </c>
@@ -6467,7 +6463,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
         <v>34060</v>
       </c>
@@ -6488,7 +6484,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
         <v>34090</v>
       </c>
@@ -6509,7 +6505,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
         <v>34121</v>
       </c>
@@ -6530,7 +6526,7 @@
         <v>67.599999999999994</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
         <v>34151</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
         <v>34182</v>
       </c>
@@ -6572,7 +6568,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
         <v>34213</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
         <v>34243</v>
       </c>
@@ -6614,7 +6610,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
         <v>34274</v>
       </c>
@@ -6635,7 +6631,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
         <v>34304</v>
       </c>
@@ -6656,7 +6652,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
         <v>34335</v>
       </c>
@@ -6677,7 +6673,7 @@
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
         <v>34366</v>
       </c>
@@ -6698,7 +6694,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
         <v>34394</v>
       </c>
@@ -6719,7 +6715,7 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
         <v>34425</v>
       </c>
@@ -6740,7 +6736,7 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
         <v>34455</v>
       </c>
@@ -6761,7 +6757,7 @@
         <v>86.7</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
         <v>34486</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
         <v>34516</v>
       </c>
@@ -6803,7 +6799,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
         <v>34547</v>
       </c>
@@ -6824,7 +6820,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
         <v>34578</v>
       </c>
@@ -6845,7 +6841,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
         <v>34608</v>
       </c>
@@ -6866,7 +6862,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="5">
         <v>34639</v>
       </c>
@@ -6887,7 +6883,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
         <v>34669</v>
       </c>
@@ -6908,7 +6904,7 @@
         <v>89.1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="5">
         <v>34700</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>100.4</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
         <v>34731</v>
       </c>
@@ -6950,7 +6946,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="5">
         <v>34759</v>
       </c>
@@ -6971,7 +6967,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
         <v>34790</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="5">
         <v>34820</v>
       </c>
@@ -7013,7 +7009,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
         <v>34851</v>
       </c>
@@ -7034,7 +7030,7 @@
         <v>104.6</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="5">
         <v>34881</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
         <v>34912</v>
       </c>
@@ -7076,7 +7072,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="5">
         <v>34943</v>
       </c>
@@ -7097,7 +7093,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
         <v>34973</v>
       </c>
@@ -7118,7 +7114,7 @@
         <v>102.4</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="5">
         <v>35004</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>97.3</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
         <v>35034</v>
       </c>
@@ -7160,7 +7156,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="5">
         <v>35065</v>
       </c>
@@ -7181,7 +7177,7 @@
         <v>101.6</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
         <v>35096</v>
       </c>
@@ -7202,7 +7198,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="5">
         <v>35125</v>
       </c>
@@ -7223,7 +7219,7 @@
         <v>88.4</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
         <v>35156</v>
       </c>
@@ -7244,7 +7240,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="5">
         <v>35186</v>
       </c>
@@ -7265,7 +7261,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
         <v>35217</v>
       </c>
@@ -7286,7 +7282,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="5">
         <v>35247</v>
       </c>
@@ -7307,7 +7303,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
         <v>35278</v>
       </c>
@@ -7328,7 +7324,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="5">
         <v>35309</v>
       </c>
@@ -7349,7 +7345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
         <v>35339</v>
       </c>
@@ -7385,7 +7381,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="5">
         <v>35370</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>111.8</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
         <v>35400</v>
       </c>
@@ -7427,7 +7423,7 @@
         <v>107.3</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="5">
         <v>35431</v>
       </c>
@@ -7448,7 +7444,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
         <v>35462</v>
       </c>
@@ -7469,7 +7465,7 @@
         <v>114.2</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="5">
         <v>35490</v>
       </c>
@@ -7490,7 +7486,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
         <v>35521</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="5">
         <v>35551</v>
       </c>
@@ -7532,7 +7528,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
         <v>35582</v>
       </c>
@@ -7553,7 +7549,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="5">
         <v>35612</v>
       </c>
@@ -7574,7 +7570,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
         <v>35643</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="5">
         <v>35674</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
         <v>35704</v>
       </c>
@@ -7637,7 +7633,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="5">
         <v>35735</v>
       </c>
@@ -7658,7 +7654,7 @@
         <v>130.19999999999999</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
         <v>35765</v>
       </c>
@@ -7679,7 +7675,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="5">
         <v>35796</v>
       </c>
@@ -7700,7 +7696,7 @@
         <v>128.1</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
         <v>35827</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="5">
         <v>35855</v>
       </c>
@@ -7742,7 +7738,7 @@
         <v>128.30000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
         <v>35886</v>
       </c>
@@ -7763,7 +7759,7 @@
         <v>137.4</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="5">
         <v>35916</v>
       </c>
@@ -7784,7 +7780,7 @@
         <v>133.80000000000001</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
         <v>35947</v>
       </c>
@@ -7805,7 +7801,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="5">
         <v>35977</v>
       </c>
@@ -7826,7 +7822,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
         <v>36008</v>
       </c>
@@ -7847,7 +7843,7 @@
         <v>138.19999999999999</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="5">
         <v>36039</v>
       </c>
@@ -7868,7 +7864,7 @@
         <v>137.19999999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
         <v>36069</v>
       </c>
@@ -7889,7 +7885,7 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="5">
         <v>36100</v>
       </c>
@@ -7910,7 +7906,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
         <v>36130</v>
       </c>
@@ -7931,7 +7927,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="5">
         <v>36161</v>
       </c>
@@ -7952,7 +7948,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
         <v>36192</v>
       </c>
@@ -7973,7 +7969,7 @@
         <v>126.7</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="5">
         <v>36220</v>
       </c>
@@ -7994,7 +7990,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
         <v>36251</v>
       </c>
@@ -8015,7 +8011,7 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="5">
         <v>36281</v>
       </c>
@@ -8036,7 +8032,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
         <v>36312</v>
       </c>
@@ -8057,7 +8053,7 @@
         <v>135.5</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="5">
         <v>36342</v>
       </c>
@@ -8078,7 +8074,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
         <v>36373</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="5">
         <v>36404</v>
       </c>
@@ -8120,7 +8116,7 @@
         <v>136.19999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="5">
         <v>36434</v>
       </c>
@@ -8141,7 +8137,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="5">
         <v>36465</v>
       </c>
@@ -8162,7 +8158,7 @@
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
         <v>36495</v>
       </c>
@@ -8183,7 +8179,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="5">
         <v>36526</v>
       </c>
@@ -8204,7 +8200,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
         <v>36557</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>141.69999999999999</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="5">
         <v>36586</v>
       </c>
@@ -8246,7 +8242,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="5">
         <v>36617</v>
       </c>
@@ -8267,7 +8263,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="5">
         <v>36647</v>
       </c>
@@ -8288,7 +8284,7 @@
         <v>137.1</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
         <v>36678</v>
       </c>
@@ -8309,7 +8305,7 @@
         <v>137.69999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="5">
         <v>36708</v>
       </c>
@@ -8330,7 +8326,7 @@
         <v>144.69999999999999</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="5">
         <v>36739</v>
       </c>
@@ -8351,7 +8347,7 @@
         <v>139.19999999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="5">
         <v>36770</v>
       </c>
@@ -8372,7 +8368,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="5">
         <v>36800</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="5">
         <v>36831</v>
       </c>
@@ -8414,7 +8410,7 @@
         <v>142.5</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
         <v>36861</v>
       </c>
@@ -8435,7 +8431,7 @@
         <v>135.80000000000001</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="5">
         <v>36892</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
         <v>36923</v>
       </c>
@@ -8477,7 +8473,7 @@
         <v>128.6</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="5">
         <v>36951</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>115.7</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
         <v>36982</v>
       </c>
@@ -8519,7 +8515,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="5">
         <v>37012</v>
       </c>
@@ -8540,7 +8536,7 @@
         <v>116.9</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
         <v>37043</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>109.9</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="5">
         <v>37073</v>
       </c>
@@ -8582,7 +8578,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
         <v>37104</v>
       </c>
@@ -8603,7 +8599,7 @@
         <v>118.9</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="5">
         <v>37135</v>
       </c>
@@ -8624,7 +8620,7 @@
         <v>116.3</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
         <v>37165</v>
       </c>
@@ -8645,7 +8641,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="5">
         <v>37196</v>
       </c>
@@ -8666,7 +8662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="5">
         <v>37226</v>
       </c>
@@ -8687,7 +8683,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="5">
         <v>37257</v>
       </c>
@@ -8708,7 +8704,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
         <v>37288</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="5">
         <v>37316</v>
       </c>
@@ -8765,7 +8761,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
         <v>37347</v>
       </c>
@@ -8786,7 +8782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="5">
         <v>37377</v>
       </c>
@@ -8807,7 +8803,7 @@
         <v>110.7</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
         <v>37408</v>
       </c>
@@ -8828,7 +8824,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="5">
         <v>37438</v>
       </c>
@@ -8849,7 +8845,7 @@
         <v>110.3</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
         <v>37469</v>
       </c>
@@ -8870,7 +8866,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="5">
         <v>37500</v>
       </c>
@@ -8891,7 +8887,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
         <v>37530</v>
       </c>
@@ -8912,7 +8908,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="5">
         <v>37561</v>
       </c>
@@ -8933,7 +8929,7 @@
         <v>93.7</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
         <v>37591</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="5">
         <v>37622</v>
       </c>
@@ -8975,7 +8971,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
         <v>37653</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="5">
         <v>37681</v>
       </c>
@@ -9017,7 +9013,7 @@
         <v>78.8</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="5">
         <v>37712</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="5">
         <v>37742</v>
       </c>
@@ -9059,7 +9055,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
         <v>37773</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="5">
         <v>37803</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>83.6</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
         <v>37834</v>
       </c>
@@ -9122,7 +9118,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="5">
         <v>37865</v>
       </c>
@@ -9143,7 +9139,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="5">
         <v>37895</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="5">
         <v>37926</v>
       </c>
@@ -9185,7 +9181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="5">
         <v>37956</v>
       </c>
@@ -9206,7 +9202,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="5">
         <v>37987</v>
       </c>
@@ -9227,7 +9223,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
         <v>38018</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="5">
         <v>38047</v>
       </c>
@@ -9269,7 +9265,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="5">
         <v>38078</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="5">
         <v>38108</v>
       </c>
@@ -9311,7 +9307,7 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="5">
         <v>38139</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="5">
         <v>38169</v>
       </c>
@@ -9353,7 +9349,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
         <v>38200</v>
       </c>
@@ -9374,7 +9370,7 @@
         <v>102.8</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="5">
         <v>38231</v>
       </c>
@@ -9395,7 +9391,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
         <v>38261</v>
       </c>
@@ -9416,7 +9412,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="5">
         <v>38292</v>
       </c>
@@ -9437,7 +9433,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
         <v>38322</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="5">
         <v>38353</v>
       </c>
@@ -9479,7 +9475,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
         <v>38384</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="5">
         <v>38412</v>
       </c>
@@ -9521,7 +9517,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
         <v>38443</v>
       </c>
@@ -9542,7 +9538,7 @@
         <v>104.4</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="5">
         <v>38473</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
         <v>38504</v>
       </c>
@@ -9584,7 +9580,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="5">
         <v>38534</v>
       </c>
@@ -9605,7 +9601,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
         <v>38565</v>
       </c>
@@ -9626,7 +9622,7 @@
         <v>106.2</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="5">
         <v>38596</v>
       </c>
@@ -9647,7 +9643,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
         <v>38626</v>
       </c>
@@ -9668,7 +9664,7 @@
         <v>105.5</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="5">
         <v>38657</v>
       </c>
@@ -9689,7 +9685,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
         <v>38687</v>
       </c>
@@ -9710,7 +9706,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="5">
         <v>38718</v>
       </c>
@@ -9731,7 +9727,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
         <v>38749</v>
       </c>
@@ -9752,7 +9748,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="5">
         <v>38777</v>
       </c>
@@ -9773,7 +9769,7 @@
         <v>106.8</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
         <v>38808</v>
       </c>
@@ -9794,7 +9790,7 @@
         <v>102.7</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="5">
         <v>38838</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
         <v>38869</v>
       </c>
@@ -9836,7 +9832,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="5">
         <v>38899</v>
       </c>
@@ -9857,7 +9853,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
         <v>38930</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>105.4</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="5">
         <v>38961</v>
       </c>
@@ -9899,7 +9895,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
         <v>38991</v>
       </c>
@@ -9920,7 +9916,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="5">
         <v>39022</v>
       </c>
@@ -9941,7 +9937,7 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
         <v>39052</v>
       </c>
@@ -9962,7 +9958,7 @@
         <v>105.1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="5">
         <v>39083</v>
       </c>
@@ -9983,7 +9979,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
         <v>39114</v>
       </c>
@@ -10004,7 +10000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="5">
         <v>39142</v>
       </c>
@@ -10025,7 +10021,7 @@
         <v>110.2</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
         <v>39173</v>
       </c>
@@ -10046,7 +10042,7 @@
         <v>111.2</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="5">
         <v>39203</v>
       </c>
@@ -10067,7 +10063,7 @@
         <v>108.2</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
         <v>39234</v>
       </c>
@@ -10103,7 +10099,7 @@
         <v>106.3</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="5">
         <v>39264</v>
       </c>
@@ -10124,7 +10120,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
         <v>39295</v>
       </c>
@@ -10145,7 +10141,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="5">
         <v>39326</v>
       </c>
@@ -10166,7 +10162,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
         <v>39356</v>
       </c>
@@ -10187,7 +10183,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="5">
         <v>39387</v>
       </c>
@@ -10208,7 +10204,7 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
         <v>39417</v>
       </c>
@@ -10229,7 +10225,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="5">
         <v>39448</v>
       </c>
@@ -10250,7 +10246,7 @@
         <v>87.8</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
         <v>39479</v>
       </c>
@@ -10274,7 +10270,7 @@
         <v>87.9</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="5">
         <v>39508</v>
       </c>
@@ -10298,7 +10294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
         <v>39539</v>
       </c>
@@ -10322,7 +10318,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="5">
         <v>39569</v>
       </c>
@@ -10346,7 +10342,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
         <v>39600</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="5">
         <v>39630</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
         <v>39661</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="5">
         <v>39692</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="5">
         <v>39722</v>
       </c>
@@ -10466,7 +10462,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="5">
         <v>39753</v>
       </c>
@@ -10490,7 +10486,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="5">
         <v>39783</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="5">
         <v>39814</v>
       </c>
@@ -10538,7 +10534,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="5">
         <v>39845</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="5">
         <v>39873</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="5">
         <v>39904</v>
       </c>
@@ -10610,7 +10606,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="5">
         <v>39934</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="5">
         <v>39965</v>
       </c>
@@ -10658,7 +10654,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="5">
         <v>39995</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
         <v>40026</v>
       </c>
@@ -10706,7 +10702,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="5">
         <v>40057</v>
       </c>
@@ -10730,7 +10726,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
         <v>40087</v>
       </c>
@@ -10754,7 +10750,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="5">
         <v>40118</v>
       </c>
@@ -10778,7 +10774,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
         <v>40148</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="5">
         <v>40179</v>
       </c>
@@ -10826,7 +10822,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
         <v>40210</v>
       </c>
@@ -10850,7 +10846,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="5">
         <v>40238</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
         <v>40269</v>
       </c>
@@ -10898,7 +10894,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="5">
         <v>40299</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
         <v>40330</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="5">
         <v>40360</v>
       </c>
@@ -10970,7 +10966,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
         <v>40391</v>
       </c>
@@ -10994,7 +10990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="5">
         <v>40422</v>
       </c>
@@ -11018,7 +11014,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
         <v>40452</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="5">
         <v>40483</v>
       </c>
@@ -11066,7 +11062,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
         <v>40513</v>
       </c>
@@ -11090,7 +11086,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="5">
         <v>40544</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
         <v>40575</v>
       </c>
@@ -11138,7 +11134,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="5">
         <v>40603</v>
       </c>
@@ -11162,7 +11158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
         <v>40634</v>
       </c>
@@ -11186,7 +11182,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="5">
         <v>40664</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
         <v>40695</v>
       </c>
@@ -11234,7 +11230,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="5">
         <v>40725</v>
       </c>
@@ -11258,7 +11254,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
         <v>40756</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>59.2</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="5">
         <v>40787</v>
       </c>
@@ -11306,7 +11302,7 @@
         <v>45.2</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
         <v>40817</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="5">
         <v>40848</v>
       </c>
@@ -11354,7 +11350,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
         <v>40878</v>
       </c>
@@ -11378,7 +11374,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="5">
         <v>40909</v>
       </c>
@@ -11402,7 +11398,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
         <v>40940</v>
       </c>
@@ -11426,7 +11422,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="5">
         <v>40969</v>
       </c>
@@ -11450,7 +11446,7 @@
         <v>71.599999999999994</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
         <v>41000</v>
       </c>
@@ -11474,7 +11470,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="5">
         <v>41030</v>
       </c>
@@ -11498,7 +11494,7 @@
         <v>68.7</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="5">
         <v>41061</v>
       </c>
@@ -11522,7 +11518,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="5">
         <v>41091</v>
       </c>
@@ -11546,7 +11542,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
         <v>41122</v>
       </c>
@@ -11570,7 +11566,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="5">
         <v>41153</v>
       </c>
@@ -11594,7 +11590,7 @@
         <v>61.3</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
         <v>41183</v>
       </c>
@@ -11633,7 +11629,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="5">
         <v>41214</v>
       </c>
@@ -11657,7 +11653,7 @@
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
         <v>41244</v>
       </c>
@@ -11681,7 +11677,7 @@
         <v>71.5</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="5">
         <v>41275</v>
       </c>
@@ -11705,7 +11701,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
         <v>41306</v>
       </c>
@@ -11729,7 +11725,7 @@
         <v>58.4</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="5">
         <v>41334</v>
       </c>
@@ -11753,7 +11749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
         <v>41365</v>
       </c>
@@ -11777,7 +11773,7 @@
         <v>61.9</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="5">
         <v>41395</v>
       </c>
@@ -11801,7 +11797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
         <v>41426</v>
       </c>
@@ -11825,7 +11821,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="5">
         <v>41456</v>
       </c>
@@ -11849,7 +11845,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
         <v>41487</v>
       </c>
@@ -11873,7 +11869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="5">
         <v>41518</v>
       </c>
@@ -11897,7 +11893,7 @@
         <v>81.8</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
         <v>41548</v>
       </c>
@@ -11921,7 +11917,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="5">
         <v>41579</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>72.400000000000006</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
         <v>41609</v>
       </c>
@@ -11969,7 +11965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="5">
         <v>41640</v>
       </c>
@@ -11993,7 +11989,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
         <v>41671</v>
       </c>
@@ -12017,7 +12013,7 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="5">
         <v>41699</v>
       </c>
@@ -12041,7 +12037,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
         <v>41730</v>
       </c>
@@ -12065,7 +12061,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="5">
         <v>41760</v>
       </c>
@@ -12089,7 +12085,7 @@
         <v>81.7</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
         <v>41791</v>
       </c>
@@ -12113,7 +12109,7 @@
         <v>82.2</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="5">
         <v>41821</v>
       </c>
@@ -12137,7 +12133,7 @@
         <v>86.4</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
         <v>41852</v>
       </c>
@@ -12161,7 +12157,7 @@
         <v>90.3</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="5">
         <v>41883</v>
       </c>
@@ -12185,7 +12181,7 @@
         <v>93.4</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
         <v>41913</v>
       </c>
@@ -12209,7 +12205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="5">
         <v>41944</v>
       </c>
@@ -12233,7 +12229,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
         <v>41974</v>
       </c>
@@ -12257,7 +12253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="5">
         <v>42005</v>
       </c>
@@ -12281,7 +12277,7 @@
         <v>93.1</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
         <v>42036</v>
       </c>
@@ -12305,7 +12301,7 @@
         <v>103.8</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="5">
         <v>42064</v>
       </c>
@@ -12329,7 +12325,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
         <v>42095</v>
       </c>
@@ -12353,7 +12349,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="5">
         <v>42125</v>
       </c>
@@ -12377,7 +12373,7 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
         <v>42156</v>
       </c>
@@ -12401,7 +12397,7 @@
         <v>94.6</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="5">
         <v>42186</v>
       </c>
@@ -12425,7 +12421,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
         <v>42217</v>
       </c>
@@ -12449,7 +12445,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="5">
         <v>42248</v>
       </c>
@@ -12473,7 +12469,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
         <v>42278</v>
       </c>
@@ -12497,7 +12493,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552" s="5">
         <v>42309</v>
       </c>
@@ -12521,7 +12517,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
         <v>42339</v>
       </c>
@@ -12545,7 +12541,7 @@
         <v>92.6</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" s="5">
         <v>42370</v>
       </c>
@@ -12569,7 +12565,7 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
         <v>42401</v>
       </c>
@@ -12593,7 +12589,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" s="5">
         <v>42430</v>
       </c>
@@ -12617,7 +12613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
         <v>42461</v>
       </c>
@@ -12641,7 +12637,7 @@
         <v>96.1</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" s="5">
         <v>42491</v>
       </c>
@@ -12665,7 +12661,7 @@
         <v>94.7</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
         <v>42522</v>
       </c>
@@ -12689,7 +12685,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" s="5">
         <v>42552</v>
       </c>
@@ -12713,7 +12709,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
         <v>42583</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>96.7</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" s="5">
         <v>42614</v>
       </c>
@@ -12761,7 +12757,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
         <v>42644</v>
       </c>
@@ -12785,7 +12781,7 @@
         <v>103.5</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" s="5">
         <v>42675</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
         <v>42705</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566" s="5">
         <v>42736</v>
       </c>
@@ -12857,7 +12853,7 @@
         <v>113.3</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
         <v>42767</v>
       </c>
@@ -12881,7 +12877,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568" s="5">
         <v>42795</v>
       </c>
@@ -12905,7 +12901,7 @@
         <v>116.1</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
         <v>42826</v>
       </c>
@@ -12929,7 +12925,7 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570" s="5">
         <v>42856</v>
       </c>
@@ -12953,7 +12949,7 @@
         <v>119.4</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
         <v>42887</v>
       </c>
@@ -12977,7 +12973,7 @@
         <v>117.6</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572" s="5">
         <v>42917</v>
       </c>
@@ -13001,7 +12997,7 @@
         <v>117.3</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
         <v>42948</v>
       </c>
@@ -13025,7 +13021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" s="5">
         <v>42979</v>
       </c>
@@ -13049,7 +13045,7 @@
         <v>120.4</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
         <v>43009</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>120.6</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" s="5">
         <v>43040</v>
       </c>
@@ -13097,7 +13093,7 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
         <v>43070</v>
       </c>
@@ -13121,7 +13117,7 @@
         <v>128.6</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578" s="5">
         <v>43101</v>
       </c>
@@ -13145,7 +13141,7 @@
         <v>123.1</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
         <v>43132</v>
       </c>
@@ -13184,7 +13180,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580" s="5">
         <v>43160</v>
       </c>
@@ -13208,7 +13204,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
         <v>43191</v>
       </c>
@@ -13232,7 +13228,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" s="5">
         <v>43221</v>
       </c>
@@ -13256,7 +13252,7 @@
         <v>125.6</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
         <v>43252</v>
       </c>
@@ -13280,7 +13276,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" s="5">
         <v>43282</v>
       </c>
@@ -13304,7 +13300,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
         <v>43313</v>
       </c>
@@ -13328,7 +13324,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586" s="5">
         <v>43344</v>
       </c>
@@ -13352,7 +13348,7 @@
         <v>134.69999999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
         <v>43374</v>
       </c>
@@ -13376,7 +13372,7 @@
         <v>135.30000000000001</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588" s="5">
         <v>43405</v>
       </c>
@@ -13400,7 +13396,7 @@
         <v>137.9</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
         <v>43435</v>
       </c>
@@ -13424,7 +13420,7 @@
         <v>136.4</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" s="5">
         <v>43466</v>
       </c>
@@ -13448,7 +13444,7 @@
         <v>126.6</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
         <v>43497</v>
       </c>
@@ -13472,7 +13468,7 @@
         <v>121.7</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592" s="5">
         <v>43525</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
         <v>43556</v>
       </c>
@@ -13520,7 +13516,7 @@
         <v>124.1</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" s="5">
         <v>43586</v>
       </c>
@@ -13544,7 +13540,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
         <v>43617</v>
       </c>
@@ -13568,7 +13564,7 @@
         <v>131.30000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" s="5">
         <v>43647</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>124.3</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
         <v>43678</v>
       </c>
@@ -13616,7 +13612,7 @@
         <v>135.80000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" s="5">
         <v>43709</v>
       </c>
@@ -13640,7 +13636,7 @@
         <v>134.19999999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
         <v>43739</v>
       </c>
@@ -13664,7 +13660,7 @@
         <v>126.3</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" s="5">
         <v>43770</v>
       </c>
@@ -13688,7 +13684,7 @@
         <v>126.1</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" s="5">
         <v>43800</v>
       </c>
@@ -13712,7 +13708,7 @@
         <v>126.8</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" s="5">
         <v>43831</v>
       </c>
@@ -13736,7 +13732,7 @@
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" s="5">
         <v>43862</v>
       </c>
@@ -13760,7 +13756,7 @@
         <v>130.4</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" s="5">
         <v>43891</v>
       </c>
@@ -13784,7 +13780,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" s="5">
         <v>43922</v>
       </c>
@@ -13808,7 +13804,7 @@
         <v>118.8</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" s="5">
         <v>43952</v>
       </c>
@@ -13832,7 +13828,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
         <v>43983</v>
       </c>
@@ -13856,7 +13852,7 @@
         <v>85.9</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" s="5">
         <v>44013</v>
       </c>
@@ -13880,7 +13876,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
         <v>44044</v>
       </c>
@@ -13904,7 +13900,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" s="5">
         <v>44075</v>
       </c>
@@ -13928,7 +13924,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
         <v>44105</v>
       </c>
@@ -13952,7 +13948,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" s="5">
         <v>44136</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" s="5">
         <v>44166</v>
       </c>
@@ -14000,7 +13996,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" s="5">
         <v>44197</v>
       </c>
@@ -14024,7 +14020,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" s="5">
         <v>44228</v>
       </c>
@@ -14048,7 +14044,7 @@
         <v>88.9</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" s="5">
         <v>44256</v>
       </c>
@@ -14072,7 +14068,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" s="5">
         <v>44287</v>
       </c>
@@ -14096,7 +14092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" s="5">
         <v>44317</v>
       </c>
@@ -14120,7 +14116,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
         <v>44348</v>
       </c>
@@ -14144,7 +14140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" s="5">
         <v>44378</v>
       </c>
@@ -14168,7 +14164,7 @@
         <v>128.9</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
         <v>44409</v>
       </c>
@@ -14192,7 +14188,7 @@
         <v>125.1</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" s="5">
         <v>44440</v>
       </c>
@@ -14216,7 +14212,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
         <v>44470</v>
       </c>
@@ -14240,7 +14236,7 @@
         <v>109.8</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
         <v>44501</v>
       </c>
@@ -14264,7 +14260,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
         <v>44531</v>
       </c>
@@ -14288,7 +14284,7 @@
         <v>111.9</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" s="5">
         <v>44562</v>
       </c>
@@ -14312,7 +14308,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" s="5">
         <v>44593</v>
       </c>
@@ -14336,7 +14332,7 @@
         <v>111.1</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" s="5">
         <v>44621</v>
       </c>
@@ -14360,7 +14356,7 @@
         <v>105.7</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" s="5">
         <v>44652</v>
       </c>
@@ -14384,7 +14380,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" s="5">
         <v>44682</v>
       </c>
@@ -14408,7 +14404,7 @@
         <v>108.6</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
         <v>44713</v>
       </c>
@@ -14432,7 +14428,7 @@
         <v>103.2</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" s="5">
         <v>44743</v>
       </c>
@@ -14456,7 +14452,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
         <v>44774</v>
       </c>
@@ -14480,7 +14476,7 @@
         <v>95.3</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" s="5">
         <v>44805</v>
       </c>
@@ -14504,7 +14500,7 @@
         <v>103.6</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
         <v>44835</v>
       </c>
@@ -14528,7 +14524,7 @@
         <v>107.8</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" s="5">
         <v>44866</v>
       </c>
@@ -14552,7 +14548,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
         <v>44896</v>
       </c>
@@ -14576,7 +14572,7 @@
         <v>101.4</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" s="5">
         <v>44927</v>
       </c>
@@ -14600,7 +14596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" s="5">
         <v>44958</v>
       </c>
@@ -14624,7 +14620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" s="5">
         <v>44986</v>
       </c>
@@ -14648,7 +14644,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
         <v>45017</v>
       </c>
@@ -14672,7 +14668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" s="5">
         <v>45047</v>
       </c>
@@ -14696,7 +14692,7 @@
         <v>103.7</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
         <v>45078</v>
       </c>
@@ -14735,7 +14731,7 @@
         <v>102.5</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" s="5">
         <v>45108</v>
       </c>
@@ -14759,7 +14755,7 @@
         <v>110.1</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" s="5">
         <v>45139</v>
       </c>
@@ -14783,7 +14779,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" s="5">
         <v>45170</v>
       </c>
@@ -14807,7 +14803,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
         <v>45200</v>
       </c>
@@ -14831,7 +14827,7 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" s="5">
         <v>45231</v>
       </c>
@@ -14855,7 +14851,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649" s="5">
         <v>45261</v>
       </c>
@@ -14879,7 +14875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650" s="5">
         <v>45292</v>
       </c>
@@ -14903,7 +14899,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651" s="5">
         <v>45323</v>
       </c>
@@ -14927,7 +14923,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652" s="5">
         <v>45352</v>
       </c>
@@ -14951,7 +14947,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653" s="5">
         <v>45383</v>
       </c>
@@ -14975,7 +14971,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654" s="5">
         <v>45413</v>
       </c>
@@ -14999,7 +14995,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655" s="5">
         <v>45444</v>
       </c>
@@ -15023,7 +15019,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656" s="5">
         <v>45474</v>
       </c>
@@ -15047,7 +15043,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657" s="5">
         <v>45505</v>
       </c>
@@ -15071,7 +15067,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658" s="5">
         <v>45536</v>
       </c>
@@ -15095,7 +15091,7 @@
         <v>105.6</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659" s="5">
         <v>45566</v>
       </c>
@@ -15119,7 +15115,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660" s="5">
         <v>45597</v>
       </c>
@@ -15143,7 +15139,7 @@
         <v>109.6</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661" s="5">
         <v>45627</v>
       </c>
@@ -15167,7 +15163,7 @@
         <v>112.8</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662" s="5">
         <v>45658</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663" s="5">
         <v>45689</v>
       </c>
@@ -15215,7 +15211,7 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664" s="5">
         <v>45717</v>
       </c>
@@ -15239,7 +15235,7 @@
         <v>100.1</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665" s="5">
         <v>45748</v>
       </c>
@@ -15263,7 +15259,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666" s="5">
         <v>45778</v>
       </c>
@@ -15287,7 +15283,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667" s="5">
         <v>45809</v>
       </c>
@@ -15311,7 +15307,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" s="5">
         <v>45839</v>
       </c>
@@ -15335,7 +15331,7 @@
         <v>95.2</v>
       </c>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" s="5">
         <v>45870</v>
       </c>
@@ -15359,7 +15355,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" s="5">
         <v>45901</v>
       </c>
@@ -15383,7 +15379,7 @@
         <v>97.8</v>
       </c>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" s="5">
         <v>45931</v>
       </c>
@@ -15407,7 +15403,7 @@
         <v>95.6</v>
       </c>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672" s="5">
         <v>45962</v>
       </c>
@@ -15431,7 +15427,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" s="5">
         <v>45992</v>
       </c>
@@ -15456,6 +15452,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15468,9 +15465,9 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -15478,7 +15475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -15487,6 +15484,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>